--- a/极小子集/实验结果.xlsx
+++ b/极小子集/实验结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>计算时间</t>
   </si>
@@ -33,7 +33,138 @@
     <t>traffic_light</t>
   </si>
   <si>
+    <t>Random</t>
+  </si>
+  <si>
     <t>极小子集</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>mutex</t>
+  </si>
+  <si>
+    <t>traffic_lights</t>
+  </si>
+  <si>
+    <t>61 time = 267</t>
+  </si>
+  <si>
+    <t>19 time = 685</t>
+  </si>
+  <si>
+    <t>false
+[y1]
+{'y1': 'state2=c2', 
+'y2': 'state1=c1'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false
+[y1,y2]
+{'y1': 'tl2.state=green', 'y2': 'tl1.state=green', 'y3': 'tl1.state=red'}
+</t>
+  </si>
+  <si>
+    <t>EF((state1 = c1) &amp; (state2 = c2))</t>
+  </si>
+  <si>
+    <t>AX(tl1.state=green &amp; tl2.state=green) &amp; tl1.state=red &amp; tl1.state=green</t>
+  </si>
+  <si>
+    <t>20 time = 104</t>
+  </si>
+  <si>
+    <t>false
+[y1]
+{'y1': 'tl2.state=yellow', 
+'y2': 'tl1.state=green', 
+'y3': 'tl1.state=red',
+ 'y4': 'tl2.state=green'}</t>
+  </si>
+  <si>
+    <t>EF(!(tl1.state=green) | !(tl2.state=green)) &amp; AF(tl1.state=red &amp; tl2.state=yellow)</t>
+  </si>
+  <si>
+    <t>form_1</t>
+  </si>
+  <si>
+    <t>[y2]</t>
+  </si>
+  <si>
+    <t>[y1,y2]</t>
+  </si>
+  <si>
+    <t>[y1]</t>
+  </si>
+  <si>
+    <t>form_2</t>
+  </si>
+  <si>
+    <t>form_3</t>
+  </si>
+  <si>
+    <t>[y1,y3]</t>
+  </si>
+  <si>
+    <t>form_4</t>
+  </si>
+  <si>
+    <t>form_5</t>
+  </si>
+  <si>
+    <t>[y3]</t>
+  </si>
+  <si>
+    <t>form_6</t>
+  </si>
+  <si>
+    <t>form_7</t>
+  </si>
+  <si>
+    <t>form_8</t>
+  </si>
+  <si>
+    <t>form_9</t>
+  </si>
+  <si>
+    <t>form_10</t>
+  </si>
+  <si>
+    <t>form_11</t>
+  </si>
+  <si>
+    <t>[y2,y3]</t>
+  </si>
+  <si>
+    <t>{'y5': 'tl1.state=yellow', 'y4': 'tl2.state=red', 'y3': 'tl2.state=green', 'y2': 'tl1.state=red', 'y1': 'tl1.state=green'}</t>
+  </si>
+  <si>
+    <t>form_12</t>
+  </si>
+  <si>
+    <t>form_13</t>
+  </si>
+  <si>
+    <t>form_14</t>
+  </si>
+  <si>
+    <t>form_15</t>
+  </si>
+  <si>
+    <t>form_16</t>
+  </si>
+  <si>
+    <t>form_17</t>
+  </si>
+  <si>
+    <t>form_18</t>
+  </si>
+  <si>
+    <t>form_19</t>
+  </si>
+  <si>
+    <t>form_20</t>
   </si>
 </sst>
 </file>
@@ -46,7 +177,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,22 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,54 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +244,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,15 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +282,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,13 +339,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,49 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,122 +523,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -409,11 +533,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,7 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,38 +610,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,17 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,154 +650,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1008,16 +1153,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:G30"/>
+  <dimension ref="C5:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="6" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="38.875" customWidth="1"/>
+    <col min="14" max="14" width="102.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:7">
@@ -1065,7 +1215,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:9">
       <c r="D8">
         <v>6570</v>
       </c>
@@ -1075,8 +1225,11 @@
       <c r="F8">
         <v>249072</v>
       </c>
-    </row>
-    <row r="9" spans="4:6">
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
       <c r="D9">
         <v>3727</v>
       </c>
@@ -1086,8 +1239,11 @@
       <c r="F9">
         <v>17950</v>
       </c>
-    </row>
-    <row r="10" spans="4:6">
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11">
       <c r="D10">
         <v>368</v>
       </c>
@@ -1097,8 +1253,17 @@
       <c r="F10">
         <v>14808</v>
       </c>
-    </row>
-    <row r="11" spans="4:6">
+      <c r="I10">
+        <v>205</v>
+      </c>
+      <c r="J10">
+        <v>221</v>
+      </c>
+      <c r="K10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
       <c r="D11">
         <v>4368</v>
       </c>
@@ -1108,8 +1273,17 @@
       <c r="F11">
         <v>15036</v>
       </c>
-    </row>
-    <row r="12" spans="4:6">
+      <c r="I11">
+        <v>126</v>
+      </c>
+      <c r="J11">
+        <v>121</v>
+      </c>
+      <c r="K11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
       <c r="D12">
         <v>3829</v>
       </c>
@@ -1119,8 +1293,17 @@
       <c r="F12">
         <v>14426</v>
       </c>
-    </row>
-    <row r="13" spans="4:6">
+      <c r="I12">
+        <v>216</v>
+      </c>
+      <c r="J12">
+        <v>367</v>
+      </c>
+      <c r="K12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11">
       <c r="D13">
         <v>3454</v>
       </c>
@@ -1130,8 +1313,17 @@
       <c r="F13">
         <v>14742</v>
       </c>
-    </row>
-    <row r="14" spans="4:6">
+      <c r="I13">
+        <v>225</v>
+      </c>
+      <c r="J13">
+        <v>1201</v>
+      </c>
+      <c r="K13">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11">
       <c r="D14">
         <v>3282</v>
       </c>
@@ -1141,8 +1333,17 @@
       <c r="F14">
         <v>15046</v>
       </c>
-    </row>
-    <row r="15" spans="4:6">
+      <c r="I14">
+        <v>199</v>
+      </c>
+      <c r="J14">
+        <v>232</v>
+      </c>
+      <c r="K14">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11">
       <c r="D15">
         <v>4623</v>
       </c>
@@ -1152,8 +1353,17 @@
       <c r="F15">
         <v>37948</v>
       </c>
-    </row>
-    <row r="16" spans="4:6">
+      <c r="I15">
+        <v>202</v>
+      </c>
+      <c r="J15">
+        <v>212</v>
+      </c>
+      <c r="K15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11">
       <c r="D16">
         <v>4496</v>
       </c>
@@ -1163,8 +1373,17 @@
       <c r="F16">
         <v>37563</v>
       </c>
-    </row>
-    <row r="17" spans="4:6">
+      <c r="I16">
+        <v>129</v>
+      </c>
+      <c r="J16">
+        <v>138</v>
+      </c>
+      <c r="K16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
       <c r="D17">
         <v>380</v>
       </c>
@@ -1174,8 +1393,17 @@
       <c r="F17">
         <v>42660</v>
       </c>
-    </row>
-    <row r="18" spans="4:6">
+      <c r="I17">
+        <v>199</v>
+      </c>
+      <c r="J17">
+        <v>267</v>
+      </c>
+      <c r="K17">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
       <c r="D18">
         <v>415</v>
       </c>
@@ -1185,8 +1413,17 @@
       <c r="F18">
         <v>48861</v>
       </c>
-    </row>
-    <row r="19" spans="4:6">
+      <c r="I18">
+        <v>238</v>
+      </c>
+      <c r="J18">
+        <v>404</v>
+      </c>
+      <c r="K18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
       <c r="D19">
         <v>433</v>
       </c>
@@ -1196,59 +1433,576 @@
       <c r="F19">
         <v>56090</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
+      <c r="I19">
+        <v>221</v>
+      </c>
+      <c r="J19">
+        <v>263</v>
+      </c>
+      <c r="K19">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11">
       <c r="D20">
         <v>481</v>
       </c>
       <c r="E20">
         <v>297</v>
       </c>
-    </row>
-    <row r="21" spans="4:5">
+      <c r="I20">
+        <v>122</v>
+      </c>
+      <c r="J20">
+        <v>478</v>
+      </c>
+      <c r="K20">
+        <v>-962</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
       <c r="D21">
         <v>126846</v>
       </c>
       <c r="E21">
         <v>571</v>
       </c>
-    </row>
-    <row r="22" spans="4:5">
+      <c r="I21">
+        <v>123</v>
+      </c>
+      <c r="J21">
+        <v>416</v>
+      </c>
+      <c r="K21">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
       <c r="D22">
         <v>508</v>
       </c>
       <c r="E22">
         <v>609</v>
       </c>
-    </row>
-    <row r="23" spans="4:5">
+      <c r="I22">
+        <v>240</v>
+      </c>
+      <c r="J22">
+        <v>288</v>
+      </c>
+      <c r="K22">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11">
       <c r="D23">
         <v>29890</v>
       </c>
       <c r="E23">
         <v>1086</v>
       </c>
-    </row>
-    <row r="24" spans="4:5">
+      <c r="I23">
+        <v>132</v>
+      </c>
+      <c r="J23">
+        <v>133</v>
+      </c>
+      <c r="K23">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
       <c r="D24">
         <v>25987</v>
       </c>
       <c r="E24">
         <v>720</v>
       </c>
-    </row>
-    <row r="25" spans="4:5">
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>221</v>
+      </c>
+      <c r="K24">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
       <c r="D25">
         <v>10198</v>
       </c>
       <c r="E25">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="3:3">
+      <c r="I25">
+        <v>134</v>
+      </c>
+      <c r="J25">
+        <v>202</v>
+      </c>
+      <c r="K25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11">
+      <c r="I26">
+        <v>138</v>
+      </c>
+      <c r="J26">
+        <v>336</v>
+      </c>
+      <c r="K26">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27">
+        <v>339</v>
+      </c>
+      <c r="J27">
+        <v>231</v>
+      </c>
+      <c r="K27">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11">
+      <c r="I28">
+        <v>130</v>
+      </c>
+      <c r="J28">
+        <v>197</v>
+      </c>
+      <c r="K28">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29">
+        <v>140</v>
+      </c>
+      <c r="J29">
+        <v>229</v>
+      </c>
+      <c r="K29">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
       <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE(I10:I29)</f>
+        <v>177.9</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE(J10:J29)</f>
+        <v>307.85</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE(K10:K29)</f>
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14">
+      <c r="L36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="12:14">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="12:14">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="12:14">
+      <c r="L40" s="1"/>
+      <c r="M40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" ht="81" spans="12:14">
+      <c r="L41" s="1"/>
+      <c r="M41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="12:14">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="12:14">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="12:14">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="12:14">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="81" spans="12:14">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="12:14">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="7" customHeight="1"/>
+    <row r="71" spans="3:7">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
         <v>5</v>
       </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="C72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="C89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="C90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
